--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BFBD0F-4823-4203-854F-E37468A7F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DEB84-A560-4D72-AD77-A5590A951EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -490,6 +490,77 @@
   </si>
   <si>
     <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を保持</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>controlNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intejer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力、web上では表記されない</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期グループ</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pr_group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web上には未表記</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミヒョウキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1289,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1508,25 +1579,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>nickname varchar (20)</v>
+        <v>nickname varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">pr_group intejer </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1815,7 +1894,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1927,21 +2006,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
@@ -1949,7 +2028,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>groupID varchar (20),</v>
+        <v>controlNumber intejer ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1957,10 +2036,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -1968,16 +2047,16 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>userID varchar (20),</v>
+        <v>groupID varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1985,63 +2064,81 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>editer varchar (5)</v>
+        <v>userID varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>editer varchar (5),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">icon varchar </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2330,7 +2427,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B11" sqref="B11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2472,27 +2569,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
-        <v>30</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>task varchar (30),</v>
+        <v>group_number intjer ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2500,25 +2597,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>contents varchar (200),</v>
+        <v>task varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2526,25 +2625,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>limit datetime ,</v>
+        <v>contents varchar (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2552,25 +2651,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>from varchar (20),</v>
+        <v>limit datetime ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2578,10 +2677,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
@@ -2593,12 +2692,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>to varchar (20),</v>
+        <v>from varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2606,27 +2703,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>change_button varchar (3),</v>
+        <v>to varchar (20),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2634,27 +2731,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>checkbox varchar (5),</v>
+        <v>change_button varchar (3),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2662,35 +2759,45 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>manuel_link varchar (30)</v>
+        <v>checkbox varchar (5),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2698,7 +2805,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>manuel_link varchar (30)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2896,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B64C297-E857-4A52-B374-A2734E261F65}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3039,25 +3146,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>manuel_name varchar (30),</v>
+        <v>group_number intjer ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3065,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -3083,7 +3192,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>heading varchar (30),</v>
+        <v>manuel_name varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3091,16 +3200,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="3"/>
@@ -3109,7 +3218,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>contents varchar (200),</v>
+        <v>heading varchar (30),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3117,16 +3226,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
@@ -3135,17 +3244,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>image varchar (100)</v>
+        <v>contents varchar (200),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3153,7 +3270,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>image varchar (100)</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DEB84-A560-4D72-AD77-A5590A951EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DEC9E-6578-48CE-B056-831703072DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="アカウントDB" sheetId="2" r:id="rId2"/>
     <sheet name="グループDB" sheetId="3" r:id="rId3"/>
     <sheet name="タスクDB" sheetId="4" r:id="rId4"/>
-    <sheet name="マニュアルDB" sheetId="5" r:id="rId5"/>
+    <sheet name="予定DB" sheetId="6" r:id="rId5"/>
+    <sheet name="マニュアルDB" sheetId="5" r:id="rId6"/>
+    <sheet name="項目DB" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="96">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -221,16 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>切り替えボタン</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C2 パラパラチャーハン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,29 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク or 予定かを切り替え</t>
-    <rPh sb="7" eb="9">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク(予定)名</t>
-    <rPh sb="4" eb="6">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>true or false</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -436,10 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>change_button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>manuel_link</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,13 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ番号</t>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>group_number</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -561,6 +519,73 @@
     <rPh sb="6" eb="9">
       <t>ミヒョウキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定DB</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定名</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedule_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目DB</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループDB_管理番号</t>
+    <rPh sb="7" eb="11">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目DB_管理番号</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items_number</t>
+  </si>
+  <si>
+    <t>items_number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1010,13 +1035,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1360,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1385,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1399,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1425,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1473,23 +1498,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1503,13 +1528,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1517,7 +1542,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1531,13 +1556,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1545,7 +1570,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1559,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1573,7 +1598,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1587,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1601,7 +1626,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1918,13 +1943,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1932,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1958,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2006,23 +2031,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2036,13 +2061,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2050,7 +2075,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2064,13 +2089,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2080,7 +2105,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2092,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2108,7 +2133,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2120,13 +2145,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2134,7 +2159,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2424,15 +2449,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2584A0-5322-41F9-AD51-11A8F29BBA92}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -2451,13 +2476,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2465,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2479,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2491,7 +2516,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2539,23 +2564,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2569,23 +2594,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2597,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2611,7 +2636,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2628,10 +2653,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -2654,10 +2679,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2665,7 +2690,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2683,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2694,7 +2719,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L28" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>from varchar (20),</v>
       </c>
     </row>
@@ -2709,7 +2734,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -2719,11 +2744,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>to varchar (20),</v>
+        <v>51</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2731,27 +2756,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>change_button varchar (3),</v>
+        <v>checkbox varchar (5),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,45 +2784,35 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>checkbox varchar (5),</v>
+        <v>manuel_link varchar (30)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3">
-        <v>30</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2805,7 +2820,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>manuel_link varchar (30)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2971,25 +2986,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3000,16 +2997,509 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B64C297-E857-4A52-B374-A2734E261F65}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41931FAA-BD94-41E3-B1B5-E4839A65B80F}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table schedule_table (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>ordinal_number intjer ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>group_number intjer ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>task varchar (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>contents varchar (200),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>limit datetime ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L26" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>manuel_link varchar (30)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B64C297-E857-4A52-B374-A2734E261F65}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -3028,13 +3518,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3042,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3068,7 +3558,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3116,23 +3606,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3146,27 +3636,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>group_number intjer ,</v>
+        <v>group_number intejer ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3174,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3200,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -3218,25 +3708,17 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>heading varchar (30),</v>
+        <v>items_number intejer (30)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3244,25 +3726,17 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>contents varchar (200),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3270,7 +3744,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>image varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3534,4 +4008,487 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E613A14F-4DDD-453C-87E8-F312C1BE16C8}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table items_table (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>heading varchar (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>contents varchar (200),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>image varchar (100)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4DEC9E-6578-48CE-B056-831703072DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751B6491-72F3-4A9E-BBB2-BB3EB3B5E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -190,13 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク、予定DB</t>
-    <rPh sb="4" eb="6">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マニュアルDB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,6 +580,31 @@
   <si>
     <t>items_number</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_table</t>
+  </si>
+  <si>
+    <t>group_table</t>
+  </si>
+  <si>
+    <t>task_table</t>
+  </si>
+  <si>
+    <t>schedule_table</t>
+  </si>
+  <si>
+    <t>マニュアルDB</t>
+  </si>
+  <si>
+    <t>タスクDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manuel_table</t>
+  </si>
+  <si>
+    <t>items_table</t>
   </si>
 </sst>
 </file>
@@ -675,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,7 +1034,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1035,13 +1056,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1062,13 +1083,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="9">
+        <v>45454</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1094,7 +1119,9 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -1105,7 +1132,9 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -1114,9 +1143,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -1125,9 +1156,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1135,8 +1168,12 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -1144,8 +1181,12 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -1386,7 +1427,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1410,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1424,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1450,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1498,23 +1539,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1528,13 +1569,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1542,7 +1583,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1556,13 +1597,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1570,7 +1611,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1584,13 +1625,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1598,7 +1639,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1612,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1626,7 +1667,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1919,7 +1960,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1943,13 +1984,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1957,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1983,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2031,23 +2072,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2061,13 +2102,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2075,7 +2116,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2089,13 +2130,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2105,7 +2146,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2117,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -2133,7 +2174,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2145,13 +2186,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2159,7 +2200,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2452,7 +2493,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2476,13 +2517,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2490,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2504,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2516,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2564,23 +2605,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2594,23 +2635,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2622,13 +2663,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2636,7 +2677,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2650,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -2676,13 +2717,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2690,7 +2731,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2702,13 +2743,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2728,13 +2769,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -2744,7 +2785,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2756,13 +2797,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -2772,7 +2813,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2784,13 +2825,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3">
         <v>30</v>
@@ -3001,7 +3042,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3025,13 +3066,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3039,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3053,7 +3094,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3065,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3113,23 +3154,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3143,23 +3184,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3171,13 +3212,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3185,7 +3226,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3199,13 +3240,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3225,13 +3266,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3239,7 +3280,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3251,13 +3292,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -3277,13 +3318,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
@@ -3494,7 +3535,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3518,13 +3559,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3532,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3546,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3558,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3606,23 +3647,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3636,23 +3677,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3664,13 +3705,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3690,13 +3731,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -4015,7 +4056,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4039,13 +4080,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4053,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4067,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4079,7 +4120,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4127,23 +4168,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4157,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4183,13 +4224,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -4209,13 +4250,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751B6491-72F3-4A9E-BBB2-BB3EB3B5E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3522D5C-2C42-4718-B598-33E7EDE75909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="104">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -278,14 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>account_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -346,28 +338,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクの場合にこの項目を使用</t>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true or false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>limit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ordinal_number</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -382,10 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,10 +370,6 @@
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manuel_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -417,10 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>control_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>intejr</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,10 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>controlNumber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>intejer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,10 +498,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目DB</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -554,10 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>items_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループDB_管理番号</t>
     <rPh sb="7" eb="11">
       <t>カンリバンゴウ</t>
@@ -565,46 +512,110 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目DB_管理番号</t>
-    <rPh sb="0" eb="2">
+    <t>items_number</t>
+  </si>
+  <si>
+    <t>マニュアルDB</t>
+  </si>
+  <si>
+    <t>タスクDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>accounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>groups</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedules</t>
+  </si>
+  <si>
+    <t>schedules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manuals</t>
+  </si>
+  <si>
+    <t>manuals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアルDB_管理番号</t>
+    <rPh sb="8" eb="12">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueならnew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの場合にこの項目を使用 
+falseならチェック済み</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="5" eb="9">
-      <t>カンリバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>items_number</t>
-  </si>
-  <si>
-    <t>items_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account_table</t>
-  </si>
-  <si>
-    <t>group_table</t>
-  </si>
-  <si>
-    <t>task_table</t>
-  </si>
-  <si>
-    <t>schedule_table</t>
-  </si>
-  <si>
-    <t>マニュアルDB</t>
-  </si>
-  <si>
-    <t>タスクDB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manuel_table</t>
-  </si>
-  <si>
-    <t>items_table</t>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>falseならあり trueなら無し</t>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -693,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +734,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1048,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1133,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1143,10 +1157,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1156,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1169,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1182,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1491,7 +1505,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1531,7 +1545,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table account_table (</v>
+        <v>create table accounts (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1653,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1667,7 +1681,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1959,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488AEC73-F027-4173-A725-F94643AF8A64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2038,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2064,7 +2078,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table group_table (</v>
+        <v>create table groups (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2075,10 +2089,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2094,7 +2108,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>controlNumber intejer ,</v>
+        <v>id intejer ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,10 +2116,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -2130,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -2146,7 +2160,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2158,27 +2172,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>editer varchar (5),</v>
+        <v>editer boolean ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2186,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -2200,7 +2214,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2493,7 +2507,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2545,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2557,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2597,7 +2611,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table task_table (</v>
+        <v>create table tasks (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2608,10 +2622,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2627,7 +2641,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ordinal_number intjer ,</v>
+        <v>id intjer ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2635,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2651,7 +2665,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2663,10 +2677,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -2694,7 +2708,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -2720,10 +2734,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2731,7 +2745,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2785,39 +2799,39 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>checkbox varchar (5),</v>
+        <v>checkbox boolean ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2825,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>41</v>
@@ -2843,25 +2857,35 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>manuel_link varchar (30)</v>
+        <v>manuel_link varchar (30),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">new boolean </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3042,7 +3066,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3094,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3146,7 +3170,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table schedule_table (</v>
+        <v>create table schedules (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3157,10 +3181,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3176,7 +3200,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>ordinal_number intjer ,</v>
+        <v>id intjer ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3184,13 +3208,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3200,7 +3224,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3212,10 +3236,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -3243,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -3269,10 +3293,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3280,7 +3304,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3317,18 +3341,10 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3336,7 +3352,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L26" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>manuel_link varchar (30)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3534,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B64C297-E857-4A52-B374-A2734E261F65}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3599,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3639,7 +3655,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table manuel_table (</v>
+        <v>create table manuals (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3650,10 +3666,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3669,7 +3685,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>control_number intejr ,</v>
+        <v>id intejr ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3677,13 +3693,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3693,7 +3709,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3705,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -3723,25 +3739,17 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>manuel_name varchar (30),</v>
+        <v>manuel_name varchar (30)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="7"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3749,7 +3757,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>items_number intejer (30)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4056,12 +4064,12 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -4108,7 +4116,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4160,7 +4168,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table items_table (</v>
+        <v>create table items (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4171,10 +4179,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -4198,10 +4206,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -4227,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -4250,10 +4258,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
@@ -4268,17 +4276,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>image varchar (100)</v>
+        <v>image varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4286,7 +4302,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>items_number intejer (30)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3522D5C-2C42-4718-B598-33E7EDE75909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D05DD-82FB-4ADC-9B93-C1F6ABB8580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="104">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,10 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>groupID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>editer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,9 +504,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>items_number</t>
-  </si>
-  <si>
     <t>マニュアルDB</t>
   </si>
   <si>
@@ -576,21 +565,6 @@
     <rPh sb="8" eb="12">
       <t>カンリバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>trueならnew</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -615,6 +589,33 @@
     <rPh sb="16" eb="17">
       <t>ナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1134,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1147,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1157,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1170,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1183,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1196,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1441,7 +1442,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1505,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1556,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -1575,7 +1576,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>userID varchar (20),</v>
+        <v>user_ID varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1586,10 +1587,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -1614,10 +1615,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1642,10 +1643,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1667,13 +1668,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1681,7 +1682,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1973,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488AEC73-F027-4173-A725-F94643AF8A64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2089,10 +2090,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2116,13 +2117,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2136,7 +2137,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>groupID varchar (20),</v>
+        <v>group_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2144,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2160,11 +2161,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>userID varchar (20),</v>
+        <v>user_ID varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2172,13 +2173,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2188,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2200,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2214,7 +2215,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2507,7 +2508,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2559,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2571,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2622,10 +2623,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2649,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2665,7 +2666,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2677,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2708,10 +2709,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -2734,10 +2735,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2745,7 +2746,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2763,7 +2764,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2789,7 +2790,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -2799,7 +2800,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L16" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2811,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2827,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2839,13 +2840,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>30</v>
@@ -2857,35 +2858,25 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>manuel_link varchar (30),</v>
+        <v>manuel_link varchar (30)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">new boolean </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3118,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3130,7 +3121,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3181,10 +3172,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3208,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3224,7 +3215,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3236,13 +3227,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3267,10 +3258,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3293,10 +3284,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3304,7 +3295,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3322,7 +3313,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -3551,7 +3542,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3615,7 +3606,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3666,10 +3657,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3693,13 +3684,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3709,7 +3700,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3721,13 +3712,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4063,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E613A14F-4DDD-453C-87E8-F312C1BE16C8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4116,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4128,7 +4119,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4179,10 +4170,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -4206,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4224,7 +4215,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>heading varchar (30),</v>
+        <v>manual_id intejer (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4232,16 +4223,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
@@ -4250,7 +4241,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>contents varchar (200),</v>
+        <v>heading varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4258,16 +4249,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="3"/>
@@ -4276,7 +4267,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>image varchar (100),</v>
+        <v>contents varchar (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4284,16 +4275,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="3"/>
@@ -4302,16 +4293,22 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>items_number intejer (30)</v>
+        <v>image varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
@@ -4320,7 +4317,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">regist_day Date </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D05DD-82FB-4ADC-9B93-C1F6ABB8580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5651C8-4721-41C4-8D24-3E1C391127BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>limit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>intjer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,10 +354,6 @@
   </si>
   <si>
     <t>manuel_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -616,6 +608,18 @@
   </si>
   <si>
     <t>manual_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1135,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1148,7 +1152,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1158,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1171,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1184,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1197,10 +1201,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1506,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1557,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -1668,13 +1672,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1682,7 +1686,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2039,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2090,10 +2094,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2120,7 +2124,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2148,7 +2152,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2179,7 +2183,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2189,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2201,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -2215,7 +2219,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2507,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2584A0-5322-41F9-AD51-11A8F29BBA92}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2572,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2623,10 +2627,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2650,13 +2654,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2666,7 +2670,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2678,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2709,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -2735,10 +2739,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2746,11 +2750,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>limit datetime ,</v>
+        <v>today timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2761,7 +2765,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2776,7 +2780,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L28" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>from varchar (20),</v>
+        <v>register varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2815,10 +2819,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2828,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2843,7 +2847,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
@@ -3057,7 +3061,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3109,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3121,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3172,10 +3176,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3199,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3215,7 +3219,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3227,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -3258,7 +3262,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -3284,10 +3288,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3295,11 +3299,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>limit datetime ,</v>
+        <v>today timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3310,7 +3314,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -3606,7 +3610,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3657,10 +3661,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -3684,13 +3688,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3700,7 +3704,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3712,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -4054,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E613A14F-4DDD-453C-87E8-F312C1BE16C8}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4107,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4119,7 +4123,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4170,10 +4174,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -4197,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4223,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -4252,7 +4256,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -4275,10 +4279,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4301,13 +4305,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="7"/>

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5651C8-4721-41C4-8D24-3E1C391127BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBC9D6-1473-4BBB-BDA0-D5385934B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="アカウントDB" sheetId="2" r:id="rId2"/>
     <sheet name="グループDB" sheetId="3" r:id="rId3"/>
-    <sheet name="タスクDB" sheetId="4" r:id="rId4"/>
-    <sheet name="予定DB" sheetId="6" r:id="rId5"/>
-    <sheet name="マニュアルDB" sheetId="5" r:id="rId6"/>
-    <sheet name="項目DB" sheetId="7" r:id="rId7"/>
+    <sheet name="グループメンバーDB" sheetId="8" r:id="rId4"/>
+    <sheet name="タスクDB" sheetId="4" r:id="rId5"/>
+    <sheet name="予定DB" sheetId="6" r:id="rId6"/>
+    <sheet name="マニュアルDB" sheetId="5" r:id="rId7"/>
+    <sheet name="項目DB" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="108">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -620,6 +621,21 @@
   </si>
   <si>
     <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループメンバーDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groups_menbr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ_管理番号</t>
+    <rPh sb="5" eb="9">
+      <t>カンリバンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -709,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,7 +1998,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2508,10 +2527,583 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D2A7A-856B-44F6-B54A-5E681FBBA54A}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table groups_menbr (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id intejer ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>group_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_ID varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">editer boolean </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2584A0-5322-41F9-AD51-11A8F29BBA92}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3056,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41931FAA-BD94-41E3-B1B5-E4839A65B80F}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -3541,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B64C297-E857-4A52-B374-A2734E261F65}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4054,7 +4646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E613A14F-4DDD-453C-87E8-F312C1BE16C8}">
   <dimension ref="A1:L28"/>
   <sheetViews>

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBC9D6-1473-4BBB-BDA0-D5385934B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7884306-5F40-4512-803A-F828AEBFB3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -636,6 +636,18 @@
     <rPh sb="5" eb="9">
       <t>カンリバンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -725,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488AEC73-F027-4173-A725-F94643AF8A64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2168,81 +2177,61 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_ID varchar (20),</v>
+        <v xml:space="preserve">icon varchar </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>editer boolean ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">icon varchar </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2528,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D2A7A-856B-44F6-B54A-5E681FBBA54A}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2676,24 +2665,20 @@
         <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="7"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>group_name varchar (20),</v>
+        <v>group_id integer ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2721,7 +2706,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_ID varchar (20),</v>
+        <v>group_name varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2729,45 +2714,55 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">editer boolean </v>
+        <v>user_ID varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">editer boolean </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3045,57 +3040,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
+++ b/doc/13_外部設計/02_DB定義書_C2_パラパラチャーハン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7884306-5F40-4512-803A-F828AEBFB3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D7E985-A562-4075-8671-4B6FFFB6E9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="114">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -351,10 +351,6 @@
   </si>
   <si>
     <t>checkbox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manuel_link</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -648,6 +644,28 @@
   </si>
   <si>
     <t>グループ_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル項目表示ID</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manual_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadline</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1167,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1180,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1190,10 +1208,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1203,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1216,10 +1234,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1229,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1538,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1589,7 +1607,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -1700,13 +1718,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="7"/>
@@ -1714,7 +1732,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2006,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488AEC73-F027-4173-A725-F94643AF8A64}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2071,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2122,10 +2140,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2152,7 +2170,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2177,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2191,7 +2209,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2572,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2584,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2635,10 +2653,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -2662,13 +2680,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="7"/>
@@ -2686,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2717,7 +2735,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -2748,7 +2766,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2758,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3051,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2584A0-5322-41F9-AD51-11A8F29BBA92}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3104,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3116,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3167,7 +3185,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
@@ -3194,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3210,7 +3228,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3222,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
@@ -3279,10 +3297,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3305,7 +3323,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -3362,7 +3380,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3372,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3387,7 +3405,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
@@ -3402,16 +3420,22 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>manuel_link varchar (30)</v>
+        <v>manual_link varchar (30),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3420,7 +3444,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">manual_ID intjer </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3601,7 +3625,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3653,7 +3677,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3665,7 +3689,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3716,7 +3740,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
@@ -3743,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
@@ -3759,7 +3783,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3771,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
@@ -3828,10 +3852,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3843,7 +3867,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>today timestamp ,</v>
+        <v>deadline timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3854,7 +3878,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -4150,7 +4174,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4201,10 +4225,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -4228,13 +4252,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4244,7 +4268,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4256,10 +4280,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -4651,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4663,7 +4687,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4714,10 +4738,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="7" t="s">
@@ -4741,13 +4765,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -4767,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -4819,10 +4843,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4845,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="7"/>
